--- a/data/trans_orig/Q21A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q21A-Estudios-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>1.546443373881976</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.265002220948129</v>
+        <v>2.26500222094813</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>1.84258227477988</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.362431589525873</v>
+        <v>1.368919582621246</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.551466279324777</v>
+        <v>1.55554641512773</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.419616733135678</v>
+        <v>1.418353662644478</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.653062053102007</v>
+        <v>1.655903448396889</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.692334175832856</v>
+        <v>1.676119451637564</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.637524129615154</v>
+        <v>1.633128188535278</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.630444099232958</v>
+        <v>1.628915914837497</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.644339500977132</v>
+        <v>1.639411674758109</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.609082617342821</v>
+        <v>1.598732580959733</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.635487075315914</v>
+        <v>1.645710218844941</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.577232178768581</v>
+        <v>1.573015300747727</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.735503242038718</v>
+        <v>1.727864018691158</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.631795691351548</v>
+        <v>1.643755983579665</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.024158535742972</v>
+        <v>1.984687870555582</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.74467097525053</v>
+        <v>1.746586460647989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.062156565309121</v>
+        <v>4.282588518120034</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.039677665772339</v>
+        <v>2.049535292706485</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.944668122340482</v>
+        <v>1.944605249077162</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.000993397592922</v>
+        <v>2.00769173760443</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.092764832138731</v>
+        <v>2.122243911972876</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.849116210806557</v>
+        <v>1.850190883654986</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1.890804109447498</v>
+        <v>1.898939899537883</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.835004544392295</v>
+        <v>1.833921143495689</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.677987236903939</v>
+        <v>2.607847748801149</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.196155839186352</v>
+        <v>1.199558444088927</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.546024110933</v>
+        <v>1.545987852635597</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.504107056313974</v>
+        <v>1.490598143089026</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.544873876029708</v>
+        <v>1.543410476157527</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.52662283356873</v>
+        <v>1.530984806033113</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.853511700236185</v>
+        <v>1.827122127420399</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.795711564661638</v>
+        <v>1.804334214676711</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.849918183109183</v>
+        <v>1.855748975655531</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.415915353260945</v>
+        <v>1.416144248155682</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.754063928121619</v>
+        <v>1.745202987973757</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.698534944882473</v>
+        <v>1.708540798325125</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.740794700163077</v>
+        <v>1.749509744365875</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.585641814161631</v>
+        <v>1.543729625663083</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.175201972902916</v>
+        <v>2.182904749833848</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.902602515873676</v>
+        <v>1.88022451410833</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.036714533310384</v>
+        <v>2.023672021543439</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.933245542448008</v>
+        <v>1.933237166251286</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>2.299615581193203</v>
+        <v>2.264481588270702</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.310625858161412</v>
+        <v>2.336798378958669</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.398586971467129</v>
+        <v>2.415126751245488</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.660230388247999</v>
+        <v>1.670368549519695</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2.103729611734896</v>
+        <v>2.122304909254623</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.029037317748339</v>
+        <v>2.053296848126451</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>2.111015827824886</v>
+        <v>2.098545439487121</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>1.655354463102799</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.612708568193441</v>
+        <v>1.612708568193442</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>1.582896809181135</v>
@@ -953,7 +953,7 @@
         <v>1.763242944910413</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>1.987378146660139</v>
+        <v>1.987378146660138</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>1.44492458100363</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.158248357740814</v>
+        <v>1.152104197666664</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.305028188075879</v>
+        <v>1.315989524386799</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.266194222534914</v>
+        <v>1.270349575873902</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.392261177477013</v>
+        <v>1.386102737929284</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.394553458766198</v>
+        <v>1.39207096071051</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.543244002347745</v>
+        <v>1.539540718069973</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.486687857812904</v>
+        <v>1.491889249328401</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.72948756632462</v>
+        <v>1.738663485418736</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.328947173133294</v>
+        <v>1.321719098653213</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.510800680966841</v>
+        <v>1.496367875081695</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.475377658669297</v>
+        <v>1.4795696083367</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.6367173849339</v>
+        <v>1.653400660689716</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.524327407598363</v>
+        <v>1.509147091484965</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.137327920660165</v>
+        <v>2.217332012986138</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.93891808161495</v>
+        <v>3.216021629973303</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.957464658041395</v>
+        <v>1.959771597712268</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.034310065959624</v>
+        <v>2.07279089682829</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.50390156098159</v>
+        <v>2.47202767124237</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.626842300442013</v>
+        <v>2.674739439193141</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.68311991018335</v>
+        <v>2.700729870522791</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.70415903276486</v>
+        <v>1.718986835235665</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2.209666737231172</v>
+        <v>2.142972836229607</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.331907744202432</v>
+        <v>2.250385628614462</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>2.173116832423572</v>
+        <v>2.162580698326767</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.285636992125998</v>
+        <v>1.289687458838959</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.588552685598205</v>
+        <v>1.589110074396155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.503754095228234</v>
+        <v>1.482728024724539</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.615059870904422</v>
+        <v>1.626967579376889</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.630301431966152</v>
+        <v>1.636264974866902</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.779450202501633</v>
+        <v>1.785222196536714</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.748922591292598</v>
+        <v>1.756649146765161</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.834194076771649</v>
+        <v>1.837419351796003</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1.514715864671328</v>
+        <v>1.516830748037695</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.738014954106606</v>
+        <v>1.735689393828804</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.670213786523839</v>
+        <v>1.678703519232167</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.777680807458177</v>
+        <v>1.79363574137587</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.47945140799032</v>
+        <v>1.473355191715866</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.965795791364504</v>
+        <v>1.976552520362061</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.816132376166132</v>
+        <v>1.819728517561202</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.083268996600139</v>
+        <v>2.134697966365689</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.870370427170107</v>
+        <v>1.865264440544339</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2.051839343624844</v>
+        <v>2.050739441305991</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.084621938302793</v>
+        <v>2.092443399800583</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.192009425201001</v>
+        <v>2.204117103899191</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.671255861965747</v>
+        <v>1.681861570587043</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1.95768618958285</v>
+        <v>1.96406485958848</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.9025829471453</v>
+        <v>1.904972593623392</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>2.057391317999406</v>
+        <v>2.081093687762022</v>
       </c>
     </row>
     <row r="16">
